--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.920700.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.920700.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24AE9C0C-0DD9-41CB-957A-99BCF50B25B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCF4C297-087E-4727-97F3-3455567538CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T074350.935" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T071422.116" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
   <si>
     <t>Do Ty</t>
   </si>
@@ -260,6 +260,27 @@
   </si>
   <si>
     <t xml:space="preserve"> 050.012-23.57008641</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001370</t>
+  </si>
+  <si>
+    <t>PT.NUSANTARA SATRIA AGUNG</t>
+  </si>
+  <si>
+    <t>NSA-2024-0391</t>
+  </si>
+  <si>
+    <t>041.005-24.17521618</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001374</t>
+  </si>
+  <si>
+    <t>NSA-2024-0503</t>
+  </si>
+  <si>
+    <t>040.005-24.17521730</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1114,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1806,60 +1827,282 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>24001370</v>
+      </c>
+      <c r="D6">
+        <v>1205</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45345</v>
+      </c>
       <c r="F6" t="s">
         <v>80</v>
       </c>
       <c r="G6">
-        <v>197.81</v>
+        <v>13.97</v>
       </c>
       <c r="H6">
-        <v>197.81</v>
+        <v>13.97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
       </c>
       <c r="L6" s="2">
-        <v>3126016</v>
+        <v>220764</v>
       </c>
       <c r="N6" s="2">
-        <v>3126016</v>
-      </c>
-      <c r="AG6">
+        <v>220764</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6">
+        <v>15803</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6">
+        <v>2105273</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6">
         <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6">
+        <v>55417891</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP6">
+        <v>1205</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX6">
+        <v>24001116</v>
+      </c>
+      <c r="AY6">
+        <v>920700</v>
+      </c>
+      <c r="AZ6">
+        <v>1205.9206999999999</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>24001374</v>
+      </c>
+      <c r="D7">
+        <v>1205</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45345</v>
+      </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>0.4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6301</v>
+      </c>
+      <c r="N7" s="2">
+        <v>6301</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7">
+        <v>15803</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7">
+        <v>2105326</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7">
+        <v>55417891</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>81</v>
       </c>
-      <c r="G7">
-        <v>197.81</v>
-      </c>
-      <c r="H7">
-        <v>197.81</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3126016</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3126016</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
+      <c r="AL7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP7">
+        <v>1205</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX7">
+        <v>24001115</v>
+      </c>
+      <c r="AY7">
+        <v>920700</v>
+      </c>
+      <c r="AZ7">
+        <v>1205.9206999999999</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G8">
-        <v>197.81</v>
+        <v>212.18</v>
       </c>
       <c r="H8">
-        <v>197.81</v>
+        <v>212.18</v>
       </c>
       <c r="L8" s="2">
-        <v>3126016</v>
+        <v>3353081</v>
       </c>
       <c r="N8" s="2">
-        <v>3126016</v>
+        <v>3353081</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -1867,7 +2110,47 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>212.18</v>
+      </c>
+      <c r="H9">
+        <v>212.18</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3353081</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3353081</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10">
+        <v>212.18</v>
+      </c>
+      <c r="H10">
+        <v>212.18</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3353081</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3353081</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.920700.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.920700.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCF4C297-087E-4727-97F3-3455567538CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0E9337F-BF3C-40BB-92E6-FCD30C7965BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T071422.116" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T071947.331" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
   <si>
     <t>Do Ty</t>
   </si>
@@ -281,6 +281,33 @@
   </si>
   <si>
     <t>040.005-24.17521730</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001377</t>
+  </si>
+  <si>
+    <t>IV70000041</t>
+  </si>
+  <si>
+    <t>050.005-24.22680063</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001379</t>
+  </si>
+  <si>
+    <t>IV70000054</t>
+  </si>
+  <si>
+    <t>050.005-24.22680071</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001397</t>
+  </si>
+  <si>
+    <t>PT.RENTOKIL INDONESIA</t>
+  </si>
+  <si>
+    <t>010.005-24.20903405</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1135,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ11"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2089,68 +2116,461 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>24001377</v>
+      </c>
+      <c r="D8">
+        <v>1205</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45346</v>
+      </c>
       <c r="F8" t="s">
         <v>87</v>
       </c>
       <c r="G8">
-        <v>212.18</v>
+        <v>9.24</v>
       </c>
       <c r="H8">
-        <v>212.18</v>
+        <v>9.24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
       </c>
       <c r="L8" s="2">
-        <v>3353081</v>
+        <v>145955</v>
       </c>
       <c r="N8" s="2">
-        <v>3353081</v>
-      </c>
-      <c r="AG8">
+        <v>145955</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8">
+        <v>15803</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8">
+        <v>2105385</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA8">
         <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8">
+        <v>55229662</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>45300</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP8">
+        <v>1205</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX8">
+        <v>24001121</v>
+      </c>
+      <c r="AY8">
+        <v>920700</v>
+      </c>
+      <c r="AZ8">
+        <v>1205.9206999999999</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>24001379</v>
+      </c>
+      <c r="D9">
+        <v>1205</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45346</v>
+      </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G9">
-        <v>212.18</v>
+        <v>5.25</v>
       </c>
       <c r="H9">
-        <v>212.18</v>
+        <v>5.25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
       </c>
       <c r="L9" s="2">
-        <v>3353081</v>
+        <v>82904</v>
       </c>
       <c r="N9" s="2">
-        <v>3353081</v>
-      </c>
-      <c r="AG9">
+        <v>82904</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>15803</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9">
+        <v>2105385</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA9">
         <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9">
+        <v>55229662</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>45313</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP9">
+        <v>1205</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX9">
+        <v>24001121</v>
+      </c>
+      <c r="AY9">
+        <v>920700</v>
+      </c>
+      <c r="AZ9">
+        <v>1205.9206999999999</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>24001397</v>
+      </c>
+      <c r="D10">
+        <v>1205</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45350</v>
+      </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G10">
-        <v>212.18</v>
+        <v>15.31</v>
       </c>
       <c r="H10">
-        <v>212.18</v>
+        <v>15.31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
       </c>
       <c r="L10" s="2">
-        <v>3353081</v>
+        <v>242000</v>
       </c>
       <c r="N10" s="2">
-        <v>3353081</v>
-      </c>
-      <c r="AG10">
+        <v>242000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10">
+        <v>15803</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10">
+        <v>2105883</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA10">
         <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10">
+        <v>55117880</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL10">
+        <v>24.20903405</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>45321</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP10">
+        <v>1205</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX10">
+        <v>24001120</v>
+      </c>
+      <c r="AY10">
+        <v>920700</v>
+      </c>
+      <c r="AZ10">
+        <v>1205.9206999999999</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="G11">
+        <v>241.98</v>
+      </c>
+      <c r="H11">
+        <v>241.98</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3823940</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3823940</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12">
+        <v>241.98</v>
+      </c>
+      <c r="H12">
+        <v>241.98</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3823940</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3823940</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13">
+        <v>241.98</v>
+      </c>
+      <c r="H13">
+        <v>241.98</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3823940</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3823940</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
